--- a/data/fold_1_1-10.xlsx
+++ b/data/fold_1_1-10.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robert\ArtSesnsors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD608751-DF75-4EF5-AAA3-B01F1E5E4036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xtrain" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,9 @@
     <sheet name="xtest" sheetId="3" r:id="rId3"/>
     <sheet name="ytest" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">xtrain!$A$1:$H$181</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,23 +30,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of acceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of sudden starts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of abrupt lane changes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of intense brakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of sudden stops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of abrupts steerings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,11 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,547 +393,557 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="B1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
       <c r="F6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
       <c r="B17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19">
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -887,429 +952,429 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>6</v>
-      </c>
       <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
       <c r="C25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>10</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
       <c r="B29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>9</v>
       </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>7</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>7</v>
-      </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>8</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>9</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>10</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2</v>
-      </c>
       <c r="B37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1317,380 +1382,380 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>10</v>
       </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>6</v>
-      </c>
       <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
         <v>9</v>
       </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>5</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
       <c r="C46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>10</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>5</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5</v>
-      </c>
       <c r="B48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
         <v>10</v>
       </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>9</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2</v>
-      </c>
       <c r="B51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -1699,99 +1764,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>10</v>
       </c>
-      <c r="B53">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>5</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1</v>
-      </c>
       <c r="B54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1803,1151 +1868,1151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>8</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>9</v>
       </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57">
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
         <v>8</v>
       </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
       <c r="G58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
         <v>10</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>9</v>
       </c>
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63">
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
         <v>8</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>6</v>
-      </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
-      <c r="G63">
-        <v>4</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>8</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
         <v>9</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>9</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>10</v>
       </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65">
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
         <v>9</v>
       </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
         <v>9</v>
       </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="H66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>8</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>9</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>7</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>10</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>10</v>
       </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
-      </c>
       <c r="C68">
         <v>5</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>8</v>
       </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>2</v>
-      </c>
       <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
         <v>9</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>9</v>
       </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71">
-        <v>6</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>4</v>
-      </c>
       <c r="B72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>8</v>
       </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>9</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>4</v>
-      </c>
-      <c r="H75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>7</v>
-      </c>
       <c r="B76">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>8</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>9</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>10</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>3</v>
-      </c>
-      <c r="H78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>8</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>8</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
         <v>9</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>7</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>5</v>
-      </c>
-      <c r="B82">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
         <v>10</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>7</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="B83">
-        <v>5</v>
-      </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
         <v>10</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>8</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>8</v>
       </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>4</v>
-      </c>
-      <c r="G85">
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
         <v>8</v>
       </c>
-      <c r="H85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>3</v>
-      </c>
-      <c r="B86">
-        <v>7</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>5</v>
-      </c>
       <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
         <v>9</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>5</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>3</v>
-      </c>
-      <c r="H87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
         <v>9</v>
       </c>
-      <c r="C89">
-        <v>5</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89">
-        <v>4</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>10</v>
       </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-      <c r="E90">
-        <v>4</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>1</v>
-      </c>
       <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
         <v>10</v>
       </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>5</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>7</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
       <c r="C92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>9</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>9</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
         <v>8</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
         <v>9</v>
       </c>
-      <c r="H95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>7</v>
-      </c>
-      <c r="B96">
-        <v>7</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
-      </c>
-      <c r="F96">
-        <v>7</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
       <c r="H96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>8</v>
       </c>
-      <c r="B97">
-        <v>6</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>7</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>4</v>
-      </c>
-      <c r="G97">
-        <v>7</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>4</v>
-      </c>
       <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
         <v>9</v>
       </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-      <c r="D98">
-        <v>3</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="F98">
-        <v>4</v>
-      </c>
-      <c r="G98">
-        <v>4</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>6</v>
-      </c>
-      <c r="B99">
-        <v>6</v>
-      </c>
       <c r="C99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>6</v>
       </c>
       <c r="H100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -2955,738 +3020,738 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>8</v>
       </c>
-      <c r="B102">
-        <v>6</v>
-      </c>
-      <c r="C102">
-        <v>7</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
-      <c r="F102">
-        <v>4</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>5</v>
-      </c>
       <c r="B103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
         <v>8</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104">
-        <v>4</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-      <c r="G104">
-        <v>4</v>
-      </c>
-      <c r="H104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>8</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>10</v>
       </c>
-      <c r="C105">
-        <v>4</v>
-      </c>
-      <c r="D105">
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
         <v>9</v>
       </c>
-      <c r="E105">
-        <v>6</v>
-      </c>
-      <c r="F105">
-        <v>5</v>
-      </c>
-      <c r="G105">
-        <v>7</v>
-      </c>
-      <c r="H105">
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>7</v>
+      </c>
+      <c r="H106">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="107" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>10</v>
       </c>
-      <c r="B106">
-        <v>3</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-      <c r="E106">
-        <v>3</v>
-      </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>1</v>
-      </c>
       <c r="B107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107">
         <v>2</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>8</v>
       </c>
-      <c r="B108">
-        <v>4</v>
-      </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>4</v>
-      </c>
-      <c r="G108">
-        <v>6</v>
-      </c>
-      <c r="H108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>10</v>
       </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-      <c r="E109">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>6</v>
-      </c>
-      <c r="G109">
-        <v>2</v>
-      </c>
-      <c r="H109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>7</v>
-      </c>
       <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111">
         <v>9</v>
       </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>5</v>
-      </c>
-      <c r="G110">
-        <v>6</v>
-      </c>
-      <c r="H110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>7</v>
-      </c>
-      <c r="B111">
-        <v>7</v>
-      </c>
       <c r="C111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
         <v>5</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>8</v>
       </c>
-      <c r="B113">
-        <v>7</v>
-      </c>
-      <c r="C113">
-        <v>5</v>
-      </c>
-      <c r="D113">
-        <v>7</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>5</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>2</v>
-      </c>
       <c r="B114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116">
         <v>8</v>
       </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115">
-        <v>6</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>6</v>
-      </c>
-      <c r="B116">
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117">
         <v>9</v>
       </c>
-      <c r="C116">
-        <v>5</v>
-      </c>
-      <c r="D116">
-        <v>7</v>
-      </c>
-      <c r="E116">
-        <v>4</v>
-      </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
-      <c r="G116">
-        <v>7</v>
-      </c>
-      <c r="H116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>7</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>8</v>
       </c>
-      <c r="B117">
-        <v>6</v>
-      </c>
-      <c r="C117">
-        <v>5</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117">
-        <v>4</v>
-      </c>
-      <c r="F117">
-        <v>7</v>
-      </c>
-      <c r="G117">
-        <v>4</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>5</v>
-      </c>
       <c r="B118">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>10</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>9</v>
       </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119">
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
         <v>8</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <v>8</v>
       </c>
-      <c r="G119">
-        <v>7</v>
-      </c>
-      <c r="H119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>7</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>4</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
       <c r="G120">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>9</v>
       </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>1</v>
-      </c>
       <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
         <v>8</v>
       </c>
-      <c r="C122">
-        <v>4</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>4</v>
-      </c>
-      <c r="F122">
-        <v>4</v>
-      </c>
-      <c r="G122">
-        <v>2</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>8</v>
-      </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
       <c r="C123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F123">
         <v>4</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>8</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F124">
         <v>4</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H124">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>10</v>
       </c>
-      <c r="B125">
-        <v>5</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125">
-        <v>7</v>
-      </c>
-      <c r="F125">
-        <v>5</v>
-      </c>
-      <c r="G125">
-        <v>7</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>5</v>
-      </c>
       <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>7</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>7</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127">
         <v>9</v>
       </c>
-      <c r="C126">
-        <v>7</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>6</v>
-      </c>
-      <c r="F126">
-        <v>4</v>
-      </c>
-      <c r="G126">
-        <v>7</v>
-      </c>
-      <c r="H126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127">
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127">
+        <v>7</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128">
         <v>10</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>3</v>
-      </c>
-      <c r="E127">
-        <v>6</v>
-      </c>
-      <c r="F127">
-        <v>5</v>
-      </c>
-      <c r="G127">
-        <v>4</v>
-      </c>
-      <c r="H127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>4</v>
-      </c>
-      <c r="B128">
-        <v>7</v>
-      </c>
       <c r="C128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -3695,229 +3760,229 @@
         <v>3</v>
       </c>
       <c r="G129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131">
         <v>4</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>8</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>10</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>9</v>
       </c>
-      <c r="D132">
-        <v>7</v>
-      </c>
-      <c r="E132">
-        <v>5</v>
-      </c>
-      <c r="F132">
-        <v>2</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>7</v>
-      </c>
-      <c r="B133">
-        <v>6</v>
-      </c>
-      <c r="C133">
-        <v>4</v>
-      </c>
-      <c r="D133">
-        <v>6</v>
-      </c>
-      <c r="E133">
-        <v>2</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>4</v>
-      </c>
-      <c r="H133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>10</v>
       </c>
-      <c r="B134">
-        <v>7</v>
-      </c>
-      <c r="C134">
-        <v>4</v>
-      </c>
-      <c r="D134">
-        <v>4</v>
-      </c>
-      <c r="E134">
-        <v>7</v>
-      </c>
-      <c r="F134">
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>7</v>
+      </c>
+      <c r="F135">
         <v>8</v>
       </c>
-      <c r="G134">
-        <v>6</v>
-      </c>
-      <c r="H134">
+      <c r="G135">
+        <v>6</v>
+      </c>
+      <c r="H135">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="136" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>8</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>8</v>
       </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-      <c r="E135">
-        <v>7</v>
-      </c>
-      <c r="F135">
-        <v>7</v>
-      </c>
-      <c r="G135">
-        <v>3</v>
-      </c>
-      <c r="H135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+      <c r="F136">
+        <v>7</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>10</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>3</v>
-      </c>
-      <c r="D136">
-        <v>5</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136">
-        <v>4</v>
-      </c>
-      <c r="G136">
-        <v>2</v>
-      </c>
-      <c r="H136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>4</v>
-      </c>
       <c r="B137">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137">
         <v>4</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3926,1121 +3991,1149 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>8</v>
       </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139">
-        <v>3</v>
-      </c>
-      <c r="F139">
-        <v>4</v>
-      </c>
-      <c r="G139">
-        <v>6</v>
-      </c>
-      <c r="H139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>1</v>
-      </c>
       <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>6</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
         <v>10</v>
       </c>
-      <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>4</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>2</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>10</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <v>4</v>
-      </c>
-      <c r="D141">
-        <v>4</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>4</v>
-      </c>
-      <c r="G141">
-        <v>2</v>
-      </c>
-      <c r="H141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>8</v>
       </c>
-      <c r="B142">
-        <v>6</v>
-      </c>
-      <c r="C142">
-        <v>7</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
-        <v>7</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>6</v>
-      </c>
-      <c r="H142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>5</v>
-      </c>
       <c r="B143">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>9</v>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H145">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>3</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>5</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>9</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147">
-        <v>4</v>
-      </c>
-      <c r="F147">
-        <v>4</v>
-      </c>
-      <c r="G147">
-        <v>4</v>
-      </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>1</v>
-      </c>
       <c r="B148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>10</v>
       </c>
       <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>6</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>10</v>
+      </c>
+      <c r="B152">
         <v>9</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>9</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
         <v>9</v>
       </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>9</v>
       </c>
-      <c r="B152">
-        <v>6</v>
-      </c>
-      <c r="C152">
-        <v>5</v>
-      </c>
-      <c r="D152">
-        <v>7</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>2</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>6</v>
-      </c>
       <c r="B153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>10</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>10</v>
       </c>
-      <c r="C156">
-        <v>3</v>
-      </c>
-      <c r="D156">
-        <v>6</v>
-      </c>
-      <c r="E156">
-        <v>2</v>
-      </c>
-      <c r="F156">
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
         <v>9</v>
       </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>9</v>
       </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-      <c r="E157">
-        <v>4</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>4</v>
-      </c>
-      <c r="H157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>7</v>
-      </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>4</v>
       </c>
       <c r="H158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>9</v>
       </c>
-      <c r="B160">
-        <v>7</v>
-      </c>
-      <c r="C160">
-        <v>2</v>
-      </c>
-      <c r="D160">
-        <v>7</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>7</v>
-      </c>
-      <c r="H160">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>7</v>
+      </c>
+      <c r="H161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>10</v>
       </c>
-      <c r="B161">
-        <v>3</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>5</v>
-      </c>
-      <c r="F161">
-        <v>3</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>4</v>
-      </c>
       <c r="B162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G162">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A164">
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>10</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>5</v>
-      </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164">
-        <v>5</v>
-      </c>
-      <c r="F164">
-        <v>4</v>
-      </c>
-      <c r="G164">
-        <v>5</v>
-      </c>
-      <c r="H164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>3</v>
-      </c>
       <c r="B165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>9</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169">
-        <v>3</v>
-      </c>
-      <c r="D169">
-        <v>3</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169">
-        <v>2</v>
-      </c>
-      <c r="G169">
-        <v>5</v>
-      </c>
-      <c r="H169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>2</v>
-      </c>
       <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170">
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171">
         <v>8</v>
       </c>
-      <c r="C170">
-        <v>2</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>3</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>8</v>
       </c>
-      <c r="B171">
-        <v>3</v>
-      </c>
-      <c r="C171">
-        <v>4</v>
-      </c>
-      <c r="D171">
-        <v>2</v>
-      </c>
-      <c r="E171">
-        <v>5</v>
-      </c>
-      <c r="F171">
-        <v>4</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>3</v>
-      </c>
       <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173">
         <v>8</v>
       </c>
-      <c r="C172">
-        <v>4</v>
-      </c>
-      <c r="D172">
-        <v>5</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>2</v>
-      </c>
-      <c r="G172">
-        <v>3</v>
-      </c>
-      <c r="H172">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>5</v>
-      </c>
-      <c r="B173">
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174">
         <v>9</v>
       </c>
-      <c r="C173">
-        <v>5</v>
-      </c>
-      <c r="D173">
-        <v>6</v>
-      </c>
-      <c r="E173">
-        <v>2</v>
-      </c>
-      <c r="F173">
-        <v>4</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174">
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175">
         <v>8</v>
       </c>
-      <c r="C174">
-        <v>5</v>
-      </c>
-      <c r="D174">
-        <v>3</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>7</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>5</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
       <c r="C175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>9</v>
       </c>
-      <c r="B176">
-        <v>2</v>
-      </c>
-      <c r="C176">
-        <v>2</v>
-      </c>
-      <c r="D176">
-        <v>2</v>
-      </c>
-      <c r="E176">
-        <v>5</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>2</v>
-      </c>
-      <c r="H176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>3</v>
-      </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180">
         <v>2</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -5943,19 +6036,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -6478,19 +6572,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -6593,6 +6688,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>